--- a/sem5/DistributedComputing/lab6/lab6_report.xlsx
+++ b/sem5/DistributedComputing/lab6/lab6_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Lab 6</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Speed up</t>
-  </si>
-  <si>
-    <t>12,,521861</t>
   </si>
 </sst>
 </file>
@@ -1745,12 +1742,12 @@
         <f t="shared" si="3"/>
         <v>2.411183505</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>22</v>
+      <c r="H32" s="36">
+        <v>12.521861</v>
       </c>
-      <c r="I32" s="13" t="str">
+      <c r="I32" s="13">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>3.481117144</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -29002,7 +28999,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:I24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:I25"/>
@@ -29012,7 +29009,7 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
